--- a/uni_craw_section_chapter_header/Craw_ko_en/ko_en_chapter_notes_2024_2.xlsx
+++ b/uni_craw_section_chapter_header/Craw_ko_en/ko_en_chapter_notes_2024_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/Craw_ko_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_112922FB4BA38E36D12C4C4535E811B1796DB102" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF777972-1F58-485D-9830-0D53EFB75281}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_112922FB4BA38E36D12C4C4535E811B1796DB102" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC95455E-2320-4667-9D09-4B69940989F8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="16725" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2693,13 +2693,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/uni_craw_section_chapter_header/Craw_ko_en/ko_en_chapter_notes_2024_2.xlsx
+++ b/uni_craw_section_chapter_header/Craw_ko_en/ko_en_chapter_notes_2024_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/Craw_ko_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_112922FB4BA38E36D12C4C4535E811B1796DB102" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC95455E-2320-4667-9D09-4B69940989F8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_112922FB4BA38E36D12C4C4535E811B1796DB102" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D31A51-EC5D-4313-85D9-74E302EA4132}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="16725" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2693,14 +2693,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I97"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="8" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
